--- a/rideExcel/data/Data.xlsx
+++ b/rideExcel/data/Data.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8556" windowHeight="8064"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24360" windowHeight="8244"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -388,7 +389,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -445,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="2">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="3"/>
@@ -466,5 +467,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/rideExcel/data/Data.xlsx
+++ b/rideExcel/data/Data.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24360" windowHeight="8244"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24360" windowHeight="8244" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
+    <sheet name="RegisterData" sheetId="3" r:id="rId2"/>
+    <sheet name="ProductData" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
   <si>
     <t>STT</t>
   </si>
@@ -38,16 +39,126 @@
   </si>
   <si>
     <t>nhattan2k3gl@gmail.com</t>
+  </si>
+  <si>
+    <t>Ten</t>
+  </si>
+  <si>
+    <t>Gia</t>
+  </si>
+  <si>
+    <t>ID_TL</t>
+  </si>
+  <si>
+    <t>SoluongSP</t>
+  </si>
+  <si>
+    <t>Mota</t>
+  </si>
+  <si>
+    <t>Sản Phẩm số 1</t>
+  </si>
+  <si>
+    <t>Sản Phẩm số 2</t>
+  </si>
+  <si>
+    <t>Sản Phẩm số 3</t>
+  </si>
+  <si>
+    <t>Sản Phẩm số 4</t>
+  </si>
+  <si>
+    <t>Sản Phẩm số 5</t>
+  </si>
+  <si>
+    <t>this is product 1</t>
+  </si>
+  <si>
+    <t>this is product 2</t>
+  </si>
+  <si>
+    <t>this is product 3</t>
+  </si>
+  <si>
+    <t>this is product 4</t>
+  </si>
+  <si>
+    <t>this is product 5</t>
+  </si>
+  <si>
+    <t>NgayXuatBan</t>
+  </si>
+  <si>
+    <t>Anh1</t>
+  </si>
+  <si>
+    <t>Anh2</t>
+  </si>
+  <si>
+    <t>Anh3</t>
+  </si>
+  <si>
+    <t>D:\DoanNhatTan_Ki7\Java\backend_java6\DATN_2023\src\main\webapp\assets\products\hung.png</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>HoVaTen</t>
+  </si>
+  <si>
+    <t>MatKhau</t>
+  </si>
+  <si>
+    <t>DiaChi</t>
+  </si>
+  <si>
+    <t>Anh</t>
+  </si>
+  <si>
+    <t>nhattan01@gmail.com</t>
+  </si>
+  <si>
+    <t>nhattan02@gmail.com</t>
+  </si>
+  <si>
+    <t>nhattan03@gmail.com</t>
+  </si>
+  <si>
+    <t>Đoàn Nhật Tân</t>
+  </si>
+  <si>
+    <t>1 Lê Vẵn Sĩ, Quận Tân Bình, TP.HCM</t>
+  </si>
+  <si>
+    <t>2 Lê Vẵn Sĩ, Quận Tân Bình, TP.HCM</t>
+  </si>
+  <si>
+    <t>3 Lê Vẵn Sĩ, Quận Tân Bình, TP.HCM</t>
+  </si>
+  <si>
+    <t>4 Lê Vẵn Sĩ, Quận Tân Bình, TP.HCM</t>
+  </si>
+  <si>
+    <t>5 Lê Vẵn Sĩ, Quận Tân Bình, TP.HCM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -61,7 +172,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -97,17 +208,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -386,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -465,8 +592,379 @@
       <c r="D6" s="1"/>
       <c r="E6" s="3"/>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="84.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2">
+        <v>123</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3">
+        <v>123</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4">
+        <v>123</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5">
+        <v>123</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6">
+        <v>123</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3:B6" r:id="rId2" display="nhattan01@gmail.com"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B4" r:id="rId4"/>
+    <hyperlink ref="B5" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="84.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="5">
+        <v>41261</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="5">
+        <v>41262</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>2000</v>
+      </c>
+      <c r="D4" s="5">
+        <v>41263</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="5">
+        <v>41264</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="5">
+        <v>41265</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/rideExcel/data/Data.xlsx
+++ b/rideExcel/data/Data.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1535FCB-4E80-4E7F-9858-B1CAAF0BF2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24360" windowHeight="8244" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
@@ -98,9 +99,6 @@
     <t>Anh3</t>
   </si>
   <si>
-    <t>D:\DoanNhatTan_Ki7\Java\backend_java6\DATN_2023\src\main\webapp\assets\products\hung.png</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
@@ -141,12 +139,15 @@
   </si>
   <si>
     <t>5 Lê Vẵn Sĩ, Quận Tân Bình, TP.HCM</t>
+  </si>
+  <si>
+    <t>C:\Users\ADMIN\Documents\GitHub\DATN_2023\src\main\webapp\assets\accounts\khoa.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -224,12 +225,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
@@ -512,10 +512,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -524,7 +524,7 @@
     <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,9 +537,8 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -550,9 +549,8 @@
         <v>123</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -563,9 +561,8 @@
         <v>123</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -576,24 +573,21 @@
         <v>112</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="4"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -602,11 +596,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -622,19 +616,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>29</v>
-      </c>
-      <c r="F1" t="s">
-        <v>30</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -644,120 +638,120 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>31</v>
+      <c r="B2" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2">
         <v>123</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>32</v>
+      <c r="B3" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3">
         <v>123</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
         <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
       </c>
       <c r="D4">
         <v>123</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
         <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
       </c>
       <c r="D5">
         <v>123</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>31</v>
+      <c r="B6" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6">
         <v>123</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3:B6" r:id="rId2" display="nhattan01@gmail.com"/>
-    <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="B4" r:id="rId4"/>
-    <hyperlink ref="B5" r:id="rId5"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B3:B6" r:id="rId2" display="nhattan01@gmail.com" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -814,17 +808,17 @@
       <c r="C2">
         <v>1000</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>41261</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -846,17 +840,17 @@
       <c r="C3">
         <v>1000</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>41262</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -878,17 +872,17 @@
       <c r="C4">
         <v>2000</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>41263</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -910,17 +904,17 @@
       <c r="C5">
         <v>1000</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>41264</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -942,17 +936,17 @@
       <c r="C6">
         <v>1000</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>41265</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H6">
         <v>5</v>

--- a/rideExcel/data/Data.xlsx
+++ b/rideExcel/data/Data.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1535FCB-4E80-4E7F-9858-B1CAAF0BF2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="41">
   <si>
     <t>STT</t>
   </si>
@@ -142,12 +141,15 @@
   </si>
   <si>
     <t>C:\Users\ADMIN\Documents\GitHub\DATN_2023\src\main\webapp\assets\accounts\khoa.png</t>
+  </si>
+  <si>
+    <t>BOOKSAW | Book Co., Ltd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -512,16 +514,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -548,7 +551,9 @@
       <c r="C2" s="2">
         <v>123</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -560,7 +565,9 @@
       <c r="C3" s="2">
         <v>123</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -572,19 +579,37 @@
       <c r="C4" s="2">
         <v>112</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="1"/>
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="1"/>
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
@@ -596,11 +621,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F6"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -609,6 +634,7 @@
     <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="84.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -653,6 +679,9 @@
       <c r="F2" t="s">
         <v>39</v>
       </c>
+      <c r="G2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -673,6 +702,9 @@
       <c r="F3" t="s">
         <v>39</v>
       </c>
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -693,6 +725,9 @@
       <c r="F4" t="s">
         <v>39</v>
       </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -713,6 +748,9 @@
       <c r="F5" t="s">
         <v>39</v>
       </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -733,25 +771,28 @@
       <c r="F6" t="s">
         <v>39</v>
       </c>
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B3:B6" r:id="rId2" display="nhattan01@gmail.com" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="B4" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="B5" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3:B6" r:id="rId2" display="nhattan01@gmail.com"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B4" r:id="rId4"/>
+    <hyperlink ref="B5" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -761,6 +802,7 @@
     <col min="5" max="7" width="84.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -829,6 +871,9 @@
       <c r="J2" t="s">
         <v>16</v>
       </c>
+      <c r="K2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -861,6 +906,9 @@
       <c r="J3" t="s">
         <v>17</v>
       </c>
+      <c r="K3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -893,6 +941,9 @@
       <c r="J4" t="s">
         <v>18</v>
       </c>
+      <c r="K4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -925,6 +976,9 @@
       <c r="J5" t="s">
         <v>19</v>
       </c>
+      <c r="K5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -956,6 +1010,9 @@
       </c>
       <c r="J6" t="s">
         <v>20</v>
+      </c>
+      <c r="K6" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
